--- a/DOCUMENTACAO/LISTA_FUNCAO_AVRAS.xlsx
+++ b/DOCUMENTACAO/LISTA_FUNCAO_AVRAS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECF98B9-6C26-4C5E-BF4D-5D43FAE4C55C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331758DF-3CA0-4D26-BBF2-DF88F12874BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t xml:space="preserve">Referência </t>
   </si>
@@ -91,15 +91,9 @@
     <t>RF_F3</t>
   </si>
   <si>
-    <t>Aprovar_Sociedade</t>
-  </si>
-  <si>
     <t>RF_F4</t>
   </si>
   <si>
-    <t>Recusar_Sociedade</t>
-  </si>
-  <si>
     <t>RF_F5</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>RF_F13</t>
   </si>
   <si>
-    <t>Lançar_Conta_Pagar</t>
-  </si>
-  <si>
     <t>RF_F14</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>RF_F15</t>
   </si>
   <si>
-    <t>Gerar_Contas_Pagar</t>
-  </si>
-  <si>
     <t>RF_F16</t>
   </si>
   <si>
@@ -190,15 +178,9 @@
     <t>Quitar_Conta_Pagar</t>
   </si>
   <si>
-    <t>RF_F20</t>
-  </si>
-  <si>
     <t>Quitar_Conta_Receber</t>
   </si>
   <si>
-    <t>RF_F21</t>
-  </si>
-  <si>
     <t>Atualizar_Conta_Corrente</t>
   </si>
   <si>
@@ -266,13 +248,61 @@
   </si>
   <si>
     <t>Listar_Socios_Mensalidades_Atrasadas(OrderBy:Nome)</t>
+  </si>
+  <si>
+    <t>RF_B5</t>
+  </si>
+  <si>
+    <t>RF_B6</t>
+  </si>
+  <si>
+    <t>RF_B7</t>
+  </si>
+  <si>
+    <t>RF_B8</t>
+  </si>
+  <si>
+    <t>RF_B9</t>
+  </si>
+  <si>
+    <t>Gerenciar_Tipo_Conta</t>
+  </si>
+  <si>
+    <t>Gerenciar_Conta_Corrente</t>
+  </si>
+  <si>
+    <t>Gerenciar_Tipo_Patrimonio</t>
+  </si>
+  <si>
+    <t>Gerenciar_Categoria_Produto</t>
+  </si>
+  <si>
+    <t>Gerenciar_Tipo_Aluguel</t>
+  </si>
+  <si>
+    <t>RF_B10</t>
+  </si>
+  <si>
+    <t>RF_B11</t>
+  </si>
+  <si>
+    <t>Gerenciar_Tipo_Cargo</t>
+  </si>
+  <si>
+    <t>Gerenciar_Caixa</t>
+  </si>
+  <si>
+    <t>Avaliar_Solicitacao_Sociedade</t>
+  </si>
+  <si>
+    <t>Lançar_Despesas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +320,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,6 +472,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,22 +763,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,760 +800,813 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="G32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="H33" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>63</v>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C34:E34"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
